--- a/src/test/resources/files/assetAcquisitionList.xlsx
+++ b/src/test/resources/files/assetAcquisitionList.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labs\leassets-project\leassets-server\src\test\resources\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -585,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -595,13 +600,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -980,5 +991,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>